--- a/data/real_data/地层统计.xlsx
+++ b/data/real_data/地层统计.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\axinao\model\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\axinao\model\data\real_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D691CCF5-AC3F-4CA7-B5D7-224C0172E593}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4436F829-1296-4C96-9682-1A9A889A6F79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -658,8 +658,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CN67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="P27" sqref="P27"/>
+    <sheetView tabSelected="1" topLeftCell="Y22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AK46" sqref="AK46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -12091,11 +12091,11 @@
         <v>11</v>
       </c>
       <c r="AI42">
-        <v>10</v>
+        <v>221.1</v>
       </c>
       <c r="AJ42">
         <f t="shared" si="8"/>
-        <v>-195.1</v>
+        <v>16</v>
       </c>
       <c r="AK42" t="s">
         <v>57</v>
@@ -12254,7 +12254,7 @@
       </c>
       <c r="AJ43">
         <f t="shared" si="8"/>
-        <v>229.4</v>
+        <v>18.300000000000011</v>
       </c>
       <c r="AK43" t="s">
         <v>57</v>
